--- a/public/downloads/Template Files/Supplier List Report Result.xlsx
+++ b/public/downloads/Template Files/Supplier List Report Result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RMG\Documents\Task\1-26~Excel Link\Template Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4002C6D1-0E5A-4C4D-B3F5-1D7AAF6F20C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F78EB0-5E6F-4582-8511-C5FE0ACF4632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29010" windowHeight="13560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1565,11 +1565,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Segoe UI"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1595,16 +1594,16 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="8" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5791,893 +5790,894 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="2" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="str">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="str">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Company]]</f>
         <v>4change Energy</v>
       </c>
-      <c r="B2" s="2" t="str">
+      <c r="B2" s="4" t="str">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Phone]]</f>
         <v/>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="5">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.ARBalance]]</f>
         <v>0</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="5">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.CreditLimit]]</f>
         <v>0</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="5">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Balance]]</f>
         <v>-1000</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="5">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Balance]]</f>
         <v>-1000</v>
       </c>
-      <c r="G2" s="2" t="str">
+      <c r="G2" s="4" t="str">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Suburb]]</f>
         <v/>
       </c>
-      <c r="H2" s="2" t="str">
+      <c r="H2" s="4" t="str">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Country]]</f>
         <v>US</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="str">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="str">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Company]]</f>
         <v>ABC</v>
       </c>
-      <c r="B3" s="2" t="str">
+      <c r="B3" s="4" t="str">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Phone]]</f>
         <v>+617555555555</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="5">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.ARBalance]]</f>
         <v>112077.1</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="5">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.CreditLimit]]</f>
         <v>0</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="5">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Balance]]</f>
         <v>109667.1</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="5">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Balance]]</f>
         <v>109667.1</v>
       </c>
-      <c r="G3" s="2" t="str">
+      <c r="G3" s="4" t="str">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Suburb]]</f>
         <v>SACKVILLE</v>
       </c>
-      <c r="H3" s="2" t="str">
+      <c r="H3" s="4" t="str">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Country]]</f>
         <v>Australia</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="str">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="str">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Company]]</f>
         <v>ABC^Repair No 37</v>
       </c>
-      <c r="B4" s="2" t="str">
+      <c r="B4" s="4" t="str">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Phone]]</f>
         <v>07555555555</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="5">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.ARBalance]]</f>
         <v>49.26</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="5">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.CreditLimit]]</f>
         <v>0</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="5">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Balance]]</f>
         <v>-1050.74</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="5">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Balance]]</f>
         <v>-1050.74</v>
       </c>
-      <c r="G4" s="2" t="str">
+      <c r="G4" s="4" t="str">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Suburb]]</f>
         <v>SACKVILLE</v>
       </c>
-      <c r="H4" s="2" t="str">
+      <c r="H4" s="4" t="str">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Country]]</f>
         <v>Australia</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="str">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="str">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Company]]</f>
         <v>Absolute Sweets</v>
       </c>
-      <c r="B5" s="2" t="str">
+      <c r="B5" s="4" t="str">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Phone]]</f>
         <v>757852</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="5">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.ARBalance]]</f>
         <v>0</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="5">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.CreditLimit]]</f>
         <v>0</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="5">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Balance]]</f>
         <v>0</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="5">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Balance]]</f>
         <v>0</v>
       </c>
-      <c r="G5" s="2" t="str">
+      <c r="G5" s="4" t="str">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Suburb]]</f>
         <v/>
       </c>
-      <c r="H5" s="2" t="str">
+      <c r="H5" s="4" t="str">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Country]]</f>
         <v>United States</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="str">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="str">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Company]]</f>
         <v>Accountant 101 Pty Ltd</v>
       </c>
-      <c r="B6" s="2" t="str">
+      <c r="B6" s="4" t="str">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Phone]]</f>
         <v>+1 555 5555 555</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="5">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.ARBalance]]</f>
         <v>0</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="5">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.CreditLimit]]</f>
         <v>0</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="5">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Balance]]</f>
         <v>-5538.5</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="5">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Balance]]</f>
         <v>-5538.5</v>
       </c>
-      <c r="G6" s="2" t="str">
+      <c r="G6" s="4" t="str">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Suburb]]</f>
         <v/>
       </c>
-      <c r="H6" s="2" t="str">
+      <c r="H6" s="4" t="str">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Country]]</f>
         <v>United States</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="str">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="str">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Company]]</f>
         <v>Ache Co</v>
       </c>
-      <c r="B7" s="2" t="str">
+      <c r="B7" s="4" t="str">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Phone]]</f>
         <v>0755587744</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="5">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.ARBalance]]</f>
         <v>66913.61</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="5">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.CreditLimit]]</f>
         <v>2000</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="5">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Balance]]</f>
         <v>67613.61</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="5">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Balance]]</f>
         <v>67613.61</v>
       </c>
-      <c r="G7" s="2" t="str">
+      <c r="G7" s="4" t="str">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Suburb]]</f>
         <v>D'ESTREES BAY</v>
       </c>
-      <c r="H7" s="2" t="str">
+      <c r="H7" s="4" t="str">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Country]]</f>
         <v>Australia</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="str">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="str">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Company]]</f>
         <v>Acme Markets</v>
       </c>
-      <c r="B8" s="2" t="str">
+      <c r="B8" s="4" t="str">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Phone]]</f>
         <v/>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="5">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.ARBalance]]</f>
         <v>0</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="5">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.CreditLimit]]</f>
         <v>0</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="5">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Balance]]</f>
         <v>8419.0499999999993</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="5">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Balance]]</f>
         <v>8419.0499999999993</v>
       </c>
-      <c r="G8" s="2" t="str">
+      <c r="G8" s="4" t="str">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Suburb]]</f>
         <v/>
       </c>
-      <c r="H8" s="2" t="str">
+      <c r="H8" s="4" t="str">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Country]]</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="str">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="str">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Company]]</f>
         <v>Admin .</v>
       </c>
-      <c r="B9" s="2" t="str">
+      <c r="B9" s="4" t="str">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Phone]]</f>
         <v/>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="5">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.ARBalance]]</f>
         <v>0</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="5">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.CreditLimit]]</f>
         <v>0</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="5">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Balance]]</f>
         <v>8.25</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="5">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Balance]]</f>
         <v>8.25</v>
       </c>
-      <c r="G9" s="2" t="str">
+      <c r="G9" s="4" t="str">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Suburb]]</f>
         <v/>
       </c>
-      <c r="H9" s="2" t="str">
+      <c r="H9" s="4" t="str">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Country]]</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="str">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="str">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Company]]</f>
         <v>Allina Health</v>
       </c>
-      <c r="B10" s="2" t="str">
+      <c r="B10" s="4" t="str">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Phone]]</f>
         <v/>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="5">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.ARBalance]]</f>
         <v>0</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="5">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.CreditLimit]]</f>
         <v>0</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="5">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Balance]]</f>
         <v>-200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="5">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Balance]]</f>
         <v>-200</v>
       </c>
-      <c r="G10" s="2" t="str">
+      <c r="G10" s="4" t="str">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Suburb]]</f>
         <v/>
       </c>
-      <c r="H10" s="2" t="str">
+      <c r="H10" s="4" t="str">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Country]]</f>
         <v>US</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="str">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="str">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Company]]</f>
         <v>Amazon</v>
       </c>
-      <c r="B11" s="2" t="str">
+      <c r="B11" s="4" t="str">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Phone]]</f>
         <v/>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="5">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.ARBalance]]</f>
         <v>0</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="5">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.CreditLimit]]</f>
         <v>0</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="5">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Balance]]</f>
         <v>0</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="5">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Balance]]</f>
         <v>0</v>
       </c>
-      <c r="G11" s="2" t="str">
+      <c r="G11" s="4" t="str">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Suburb]]</f>
         <v/>
       </c>
-      <c r="H11" s="2" t="str">
+      <c r="H11" s="4" t="str">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Country]]</f>
         <v>US</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="str">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="str">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Company]]</f>
         <v>ATO</v>
       </c>
-      <c r="B12" s="2" t="str">
+      <c r="B12" s="4" t="str">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Phone]]</f>
         <v/>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="5">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.ARBalance]]</f>
         <v>0</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="5">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.CreditLimit]]</f>
         <v>0</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="5">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Balance]]</f>
         <v>350</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="5">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Balance]]</f>
         <v>350</v>
       </c>
-      <c r="G12" s="2" t="str">
+      <c r="G12" s="4" t="str">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Suburb]]</f>
         <v>CANBERRA</v>
       </c>
-      <c r="H12" s="2" t="str">
+      <c r="H12" s="4" t="str">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Country]]</f>
         <v>Australia</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="str">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="str">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Company]]</f>
         <v>BioTrackTHC</v>
       </c>
-      <c r="B13" s="2" t="str">
+      <c r="B13" s="4" t="str">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Phone]]</f>
         <v/>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="5">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.ARBalance]]</f>
         <v>4699</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="5">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.CreditLimit]]</f>
         <v>0</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="5">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Balance]]</f>
         <v>4699</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="5">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Balance]]</f>
         <v>4699</v>
       </c>
-      <c r="G13" s="2" t="str">
+      <c r="G13" s="4" t="str">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Suburb]]</f>
         <v/>
       </c>
-      <c r="H13" s="2" t="str">
+      <c r="H13" s="4" t="str">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Country]]</f>
         <v>United States</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="str">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="str">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Company]]</f>
         <v>Bridgestone</v>
       </c>
-      <c r="B14" s="2" t="str">
+      <c r="B14" s="4" t="str">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Phone]]</f>
         <v>0758858574</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="5">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.ARBalance]]</f>
         <v>0</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="5">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.CreditLimit]]</f>
         <v>0</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="5">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Balance]]</f>
         <v>-1584.96</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="5">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Balance]]</f>
         <v>-1584.96</v>
       </c>
-      <c r="G14" s="2" t="str">
+      <c r="G14" s="4" t="str">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Suburb]]</f>
         <v>ABBOTSBURY</v>
       </c>
-      <c r="H14" s="2" t="str">
+      <c r="H14" s="4" t="str">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Country]]</f>
         <v>Australia</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="str">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="str">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Company]]</f>
         <v>British</v>
       </c>
-      <c r="B15" s="2" t="str">
+      <c r="B15" s="4" t="str">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Phone]]</f>
         <v/>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="5">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.ARBalance]]</f>
         <v>0</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="5">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.CreditLimit]]</f>
         <v>0</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="5">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Balance]]</f>
         <v>-44943.32</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="5">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Balance]]</f>
         <v>-44943.32</v>
       </c>
-      <c r="G15" s="2" t="str">
+      <c r="G15" s="4" t="str">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Suburb]]</f>
         <v/>
       </c>
-      <c r="H15" s="2" t="str">
+      <c r="H15" s="4" t="str">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Country]]</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="str">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="str">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Company]]</f>
         <v>British Maid Ltd</v>
       </c>
-      <c r="B16" s="2" t="str">
+      <c r="B16" s="4" t="str">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Phone]]</f>
         <v/>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="5">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.ARBalance]]</f>
         <v>0</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="5">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.CreditLimit]]</f>
         <v>0</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="5">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Balance]]</f>
         <v>-114180.42</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="5">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Balance]]</f>
         <v>-114180.42</v>
       </c>
-      <c r="G16" s="2" t="str">
+      <c r="G16" s="4" t="str">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Suburb]]</f>
         <v/>
       </c>
-      <c r="H16" s="2" t="str">
+      <c r="H16" s="4" t="str">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Country]]</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="str">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="str">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Company]]</f>
         <v>Chairs R Us Pty Ltd</v>
       </c>
-      <c r="B17" s="2" t="str">
+      <c r="B17" s="4" t="str">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Phone]]</f>
         <v>0755125452</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="5">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.ARBalance]]</f>
         <v>0</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="5">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.CreditLimit]]</f>
         <v>0</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="5">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Balance]]</f>
         <v>-5621.16</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="5">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Balance]]</f>
         <v>-5621.16</v>
       </c>
-      <c r="G17" s="2" t="str">
+      <c r="G17" s="4" t="str">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Suburb]]</f>
         <v>ST ALBANS</v>
       </c>
-      <c r="H17" s="2" t="str">
+      <c r="H17" s="4" t="str">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Country]]</f>
         <v>UK</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="str">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="str">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Company]]</f>
         <v>Coke</v>
       </c>
-      <c r="B18" s="2" t="str">
+      <c r="B18" s="4" t="str">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Phone]]</f>
         <v/>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="5">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.ARBalance]]</f>
         <v>0</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="5">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.CreditLimit]]</f>
         <v>0</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="5">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Balance]]</f>
         <v>-5634.08</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="5">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Balance]]</f>
         <v>-5634.08</v>
       </c>
-      <c r="G18" s="2" t="str">
+      <c r="G18" s="4" t="str">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Suburb]]</f>
         <v/>
       </c>
-      <c r="H18" s="2" t="str">
+      <c r="H18" s="4" t="str">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Country]]</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="str">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="str">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Company]]</f>
         <v>Coles</v>
       </c>
-      <c r="B19" s="2" t="str">
+      <c r="B19" s="4" t="str">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Phone]]</f>
         <v>0965565656</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="5">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.ARBalance]]</f>
         <v>0</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="5">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.CreditLimit]]</f>
         <v>0</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="5">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Balance]]</f>
         <v>-14835.44</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="5">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Balance]]</f>
         <v>-14835.44</v>
       </c>
-      <c r="G19" s="2" t="str">
+      <c r="G19" s="4" t="str">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Suburb]]</f>
         <v>DAADENNING CREEK</v>
       </c>
-      <c r="H19" s="2" t="str">
+      <c r="H19" s="4" t="str">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Country]]</f>
         <v>Australia</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="str">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="str">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Company]]</f>
         <v>Cool Curries &amp; Spices</v>
       </c>
-      <c r="B20" s="2" t="str">
+      <c r="B20" s="4" t="str">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Phone]]</f>
         <v/>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="5">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.ARBalance]]</f>
         <v>0</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="5">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.CreditLimit]]</f>
         <v>0</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="5">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Balance]]</f>
         <v>-7888.98</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="5">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Balance]]</f>
         <v>-7888.98</v>
       </c>
-      <c r="G20" s="2" t="str">
+      <c r="G20" s="4" t="str">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Suburb]]</f>
         <v/>
       </c>
-      <c r="H20" s="2" t="str">
+      <c r="H20" s="4" t="str">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Country]]</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="str">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="str">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Company]]</f>
         <v>Fays Florists</v>
       </c>
-      <c r="B21" s="2" t="str">
+      <c r="B21" s="4" t="str">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Phone]]</f>
         <v/>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="5">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.ARBalance]]</f>
         <v>0</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="5">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.CreditLimit]]</f>
         <v>0</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="5">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Balance]]</f>
         <v>-13628.4</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="5">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Balance]]</f>
         <v>-13628.4</v>
       </c>
-      <c r="G21" s="2" t="str">
+      <c r="G21" s="4" t="str">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Suburb]]</f>
         <v>CAIRNS</v>
       </c>
-      <c r="H21" s="2" t="str">
+      <c r="H21" s="4" t="str">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Country]]</f>
         <v>Australia</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="str">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="str">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Company]]</f>
         <v>Fischbein</v>
       </c>
-      <c r="B22" s="2" t="str">
+      <c r="B22" s="4" t="str">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Phone]]</f>
         <v/>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="5">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.ARBalance]]</f>
         <v>18069.02</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="5">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.CreditLimit]]</f>
         <v>0</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="5">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Balance]]</f>
         <v>18069.02</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="5">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Balance]]</f>
         <v>18069.02</v>
       </c>
-      <c r="G22" s="2" t="str">
+      <c r="G22" s="4" t="str">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Suburb]]</f>
         <v>Solihull</v>
       </c>
-      <c r="H22" s="2" t="str">
+      <c r="H22" s="4" t="str">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Country]]</f>
         <v>United Kingdom</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="str">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="str">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Company]]</f>
         <v>Free As A Bird Pty Ltd</v>
       </c>
-      <c r="B23" s="2" t="str">
+      <c r="B23" s="4" t="str">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Phone]]</f>
         <v>0854645646</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="5">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.ARBalance]]</f>
         <v>0</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="5">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.CreditLimit]]</f>
         <v>0</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="5">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Balance]]</f>
         <v>-33987.18</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="5">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Balance]]</f>
         <v>-33987.18</v>
       </c>
-      <c r="G23" s="2" t="str">
+      <c r="G23" s="4" t="str">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Suburb]]</f>
         <v>FELIXSTOW</v>
       </c>
-      <c r="H23" s="2" t="str">
+      <c r="H23" s="4" t="str">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Country]]</f>
         <v>Australia</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="str">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="str">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Company]]</f>
         <v>Frozen Funds Inc</v>
       </c>
-      <c r="B24" s="2" t="str">
+      <c r="B24" s="4" t="str">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Phone]]</f>
         <v/>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="5">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.ARBalance]]</f>
         <v>0</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="5">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.CreditLimit]]</f>
         <v>0</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="5">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Balance]]</f>
         <v>-1746.25</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="5">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Balance]]</f>
         <v>-1746.25</v>
       </c>
-      <c r="G24" s="2" t="str">
+      <c r="G24" s="4" t="str">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Suburb]]</f>
         <v/>
       </c>
-      <c r="H24" s="2" t="str">
+      <c r="H24" s="4" t="str">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Country]]</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="str">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="str">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Company]]</f>
         <v>HiFeesRus</v>
       </c>
-      <c r="B25" s="2" t="str">
+      <c r="B25" s="4" t="str">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Phone]]</f>
         <v/>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="5">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.ARBalance]]</f>
         <v>0</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="5">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.CreditLimit]]</f>
         <v>0</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="5">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Balance]]</f>
         <v>-8335.2000000000007</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="5">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Balance]]</f>
         <v>-8335.2000000000007</v>
       </c>
-      <c r="G25" s="2" t="str">
+      <c r="G25" s="4" t="str">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Suburb]]</f>
         <v/>
       </c>
-      <c r="H25" s="2" t="str">
+      <c r="H25" s="4" t="str">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Country]]</f>
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="str">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="str">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Company]]</f>
         <v>Josef Steyn</v>
       </c>
-      <c r="B26" s="2" t="str">
+      <c r="B26" s="4" t="str">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Phone]]</f>
         <v/>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="5">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.ARBalance]]</f>
         <v>0</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="5">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.CreditLimit]]</f>
         <v>0</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="5">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Balance]]</f>
         <v>0</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="5">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Balance]]</f>
         <v>0</v>
       </c>
-      <c r="G26" s="2" t="str">
+      <c r="G26" s="4" t="str">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Suburb]]</f>
         <v/>
       </c>
-      <c r="H26" s="2" t="str">
+      <c r="H26" s="4" t="str">
         <f>TSupplierVS1List_IgnoreDates_true_orderby__22Company_20asc_22_Search_Active_20_3[[#This Row],[T.Country]]</f>
         <v>United States</v>
       </c>
